--- a/dados/DadosCopaDoMundoQatar2022.xlsx
+++ b/dados/DadosCopaDoMundoQatar2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Outros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A80ADF8-794E-4C71-A324-BCBC7381C8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98097DBF-5690-4693-AA1A-36114F4FD61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>106</v>
@@ -1783,39 +1783,39 @@
         <v>107</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E14" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F14" s="11">
-        <v>886</v>
+        <v>339.3</v>
       </c>
       <c r="G14" s="11">
-        <v>1765</v>
+        <v>1665</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>106</v>
@@ -1824,39 +1824,39 @@
         <v>112</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E15" s="11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F15" s="11">
-        <v>339.3</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="G15" s="11">
-        <v>1665</v>
+        <v>1508</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I15" s="11">
         <v>0</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>106</v>
@@ -1865,34 +1865,34 @@
         <v>117</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E16" s="11">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F16" s="11">
-        <v>65.849999999999994</v>
+        <v>886</v>
       </c>
       <c r="G16" s="11">
-        <v>1508</v>
+        <v>1765</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I16" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1938,7 +1938,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>127</v>
@@ -1947,39 +1947,39 @@
         <v>128</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F18" s="11">
-        <v>805</v>
+        <v>746.5</v>
       </c>
       <c r="G18" s="11">
-        <v>1717</v>
+        <v>1659</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>127</v>
@@ -1988,39 +1988,39 @@
         <v>133</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E19" s="11">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F19" s="11">
-        <v>746.5</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="G19" s="11">
-        <v>1659</v>
+        <v>1555</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I19" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>127</v>
@@ -2029,34 +2029,34 @@
         <v>138</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E20" s="11">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F20" s="11">
-        <v>131.69999999999999</v>
+        <v>805</v>
       </c>
       <c r="G20" s="11">
-        <v>1555</v>
+        <v>1717</v>
       </c>
       <c r="H20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="11">
         <v>1</v>
       </c>
-      <c r="I20" s="11">
-        <v>0</v>
-      </c>
       <c r="J20" s="11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2102,7 +2102,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>147</v>
@@ -2111,39 +2111,39 @@
         <v>148</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E22" s="11">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F22" s="11">
-        <v>559</v>
+        <v>231.9</v>
       </c>
       <c r="G22" s="11">
-        <v>1822</v>
+        <v>1558</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I22" s="11">
         <v>0</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>147</v>
@@ -2152,39 +2152,39 @@
         <v>153</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E23" s="11">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F23" s="11">
-        <v>172.13</v>
+        <v>369.4</v>
       </c>
       <c r="G23" s="11">
-        <v>1474</v>
+        <v>1632</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I23" s="11">
         <v>0</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>147</v>
@@ -2193,39 +2193,39 @@
         <v>158</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E24" s="11">
+        <v>2</v>
+      </c>
+      <c r="F24" s="11">
+        <v>559</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1822</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="F24" s="11">
-        <v>231.9</v>
-      </c>
-      <c r="G24" s="11">
-        <v>1558</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>7</v>
       </c>
       <c r="I24" s="11">
         <v>0</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>147</v>
@@ -2234,39 +2234,39 @@
         <v>163</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E25" s="11">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F25" s="11">
-        <v>369.4</v>
+        <v>172.13</v>
       </c>
       <c r="G25" s="11">
-        <v>1632</v>
+        <v>1474</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I25" s="11">
         <v>0</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>168</v>
@@ -2275,39 +2275,39 @@
         <v>169</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E26" s="11">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F26" s="11">
-        <v>1090</v>
+        <v>192.2</v>
       </c>
       <c r="G26" s="11">
-        <v>1838</v>
+        <v>1621</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I26" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>168</v>
@@ -2316,39 +2316,39 @@
         <v>174</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E27" s="11">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F27" s="11">
-        <v>328</v>
+        <v>114.75</v>
       </c>
       <c r="G27" s="11">
-        <v>1550</v>
+        <v>1485</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I27" s="11">
         <v>0</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>168</v>
@@ -2357,39 +2357,39 @@
         <v>179</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E28" s="11">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F28" s="11">
-        <v>192.2</v>
+        <v>1090</v>
       </c>
       <c r="G28" s="11">
-        <v>1621</v>
+        <v>1838</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I28" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>168</v>
@@ -2398,39 +2398,39 @@
         <v>184</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E29" s="11">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F29" s="11">
-        <v>114.75</v>
+        <v>328</v>
       </c>
       <c r="G29" s="11">
-        <v>1485</v>
+        <v>1550</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I29" s="11">
         <v>0</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>188</v>
@@ -2439,39 +2439,39 @@
         <v>189</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E30" s="11">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F30" s="11">
-        <v>882</v>
+        <v>395.4</v>
       </c>
       <c r="G30" s="11">
-        <v>1679</v>
+        <v>1641</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I30" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>188</v>
@@ -2480,39 +2480,39 @@
         <v>194</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E31" s="11">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F31" s="11">
-        <v>206.4</v>
+        <v>159.55000000000001</v>
       </c>
       <c r="G31" s="11">
-        <v>1393</v>
+        <v>1526</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I31" s="11">
         <v>0</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>188</v>
@@ -2521,39 +2521,39 @@
         <v>199</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E32" s="11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F32" s="11">
-        <v>395.4</v>
+        <v>882</v>
       </c>
       <c r="G32" s="11">
-        <v>1641</v>
+        <v>1679</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I32" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>188</v>
@@ -2562,34 +2562,34 @@
         <v>204</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E33" s="11">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F33" s="11">
-        <v>159.55000000000001</v>
+        <v>206.4</v>
       </c>
       <c r="G33" s="11">
-        <v>1526</v>
+        <v>1393</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I33" s="11">
         <v>0</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2623,76 +2623,76 @@
     <hyperlink ref="M12" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
     <hyperlink ref="L13" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
     <hyperlink ref="M13" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="L14" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="M14" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="L15" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="M15" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="L16" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="M16" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="L16" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="M16" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="L14" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="M14" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="L15" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="M15" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
     <hyperlink ref="L17" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
     <hyperlink ref="M17" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="L18" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="M18" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="L19" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="M19" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="L20" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="M20" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="L20" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="M20" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="L18" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="M18" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="L19" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="M19" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
     <hyperlink ref="L21" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
     <hyperlink ref="M21" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="L22" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="M22" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="L23" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="M23" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="L24" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="M24" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="L25" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="M25" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="L26" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="M26" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="L27" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="M27" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="L28" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="M28" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="L29" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="M29" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="L30" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="M30" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="L31" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="M31" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="L32" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="M32" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="L33" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="M33" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="L24" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="M24" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="L25" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="M25" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="L22" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="M22" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="L23" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="M23" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="L28" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="M28" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="L29" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="M29" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="L26" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="M26" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="L27" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="M27" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="L32" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="M32" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="L33" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="M33" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="L30" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="M30" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="L31" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="M31" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
     <hyperlink ref="K10" r:id="rId65" xr:uid="{048F3BF6-7405-478F-8872-E8E50DBE1498}"/>
     <hyperlink ref="K17" r:id="rId66" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{7B113DB5-8570-46E6-9038-44ABB6841B01}"/>
-    <hyperlink ref="K22" r:id="rId67" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{76D505AD-6502-427F-A3CF-BB4D27AFA301}"/>
-    <hyperlink ref="K26" r:id="rId68" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{BB2E1AA6-21E5-43A3-B872-18963F990D9F}"/>
-    <hyperlink ref="K29" r:id="rId69" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{C4867CDD-DD4E-4047-AE61-FE687E39A004}"/>
-    <hyperlink ref="K23" r:id="rId70" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{53CCEA44-3836-4A21-93F6-1EF4B26FB3E6}"/>
+    <hyperlink ref="K24" r:id="rId67" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{76D505AD-6502-427F-A3CF-BB4D27AFA301}"/>
+    <hyperlink ref="K28" r:id="rId68" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{BB2E1AA6-21E5-43A3-B872-18963F990D9F}"/>
+    <hyperlink ref="K27" r:id="rId69" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{C4867CDD-DD4E-4047-AE61-FE687E39A004}"/>
+    <hyperlink ref="K25" r:id="rId70" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{53CCEA44-3836-4A21-93F6-1EF4B26FB3E6}"/>
     <hyperlink ref="K21" r:id="rId71" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{C11AC572-2BB3-4D6B-B7E2-C655493DEF76}"/>
-    <hyperlink ref="K25" r:id="rId72" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{761E5EAE-1EA6-46AC-A3E8-F8C745607105}"/>
-    <hyperlink ref="K15" r:id="rId73" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{82AA6892-43FC-4F1C-86AC-0F99AF11BD51}"/>
+    <hyperlink ref="K23" r:id="rId72" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{761E5EAE-1EA6-46AC-A3E8-F8C745607105}"/>
+    <hyperlink ref="K14" r:id="rId73" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{82AA6892-43FC-4F1C-86AC-0F99AF11BD51}"/>
     <hyperlink ref="K3" r:id="rId74" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{B1B741A1-855F-44B4-B45C-9C463EB731B8}"/>
     <hyperlink ref="K6" r:id="rId75" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{AE9551C1-C199-4AFA-B3EE-69082C3F71EC}"/>
-    <hyperlink ref="K14" r:id="rId76" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{125D098A-EA34-4227-A07F-3CAA1A1E6541}"/>
-    <hyperlink ref="K19" r:id="rId77" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{5A3E8DF2-43FA-4283-8F4F-2C965DB2ECD6}"/>
-    <hyperlink ref="K31" r:id="rId78" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{8AC871AF-69AB-426D-8824-BBDC1696C52F}"/>
+    <hyperlink ref="K16" r:id="rId76" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{125D098A-EA34-4227-A07F-3CAA1A1E6541}"/>
+    <hyperlink ref="K18" r:id="rId77" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{5A3E8DF2-43FA-4283-8F4F-2C965DB2ECD6}"/>
+    <hyperlink ref="K33" r:id="rId78" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{8AC871AF-69AB-426D-8824-BBDC1696C52F}"/>
     <hyperlink ref="K7" r:id="rId79" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{C7BA88BF-AE89-4D65-8BF3-A26F2171C129}"/>
-    <hyperlink ref="K20" r:id="rId80" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{0681951D-BEF4-4453-AD85-FC7537A6D673}"/>
+    <hyperlink ref="K19" r:id="rId80" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{0681951D-BEF4-4453-AD85-FC7537A6D673}"/>
     <hyperlink ref="K12" r:id="rId81" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{07AD664F-EF9A-43E2-BAA6-DA8B013C448A}"/>
-    <hyperlink ref="K24" r:id="rId82" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{10316B4C-D3BC-4953-9D1E-48FE2C938BF1}"/>
+    <hyperlink ref="K22" r:id="rId82" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{10316B4C-D3BC-4953-9D1E-48FE2C938BF1}"/>
     <hyperlink ref="K5" r:id="rId83" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{BFA2501D-BEBB-47CC-8845-C11A8E0102E8}"/>
     <hyperlink ref="K13" r:id="rId84" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{A99F44B5-54C7-4324-9A44-DA125DACAF71}"/>
-    <hyperlink ref="K30" r:id="rId85" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{1ED351FC-1A8D-4557-846C-B6607682F91B}"/>
+    <hyperlink ref="K32" r:id="rId85" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{1ED351FC-1A8D-4557-846C-B6607682F91B}"/>
     <hyperlink ref="K11" r:id="rId86" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{5FCEAB6D-989C-466C-A9A1-1DD79B782C5D}"/>
     <hyperlink ref="K4" r:id="rId87" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{0BB9B5B2-509B-4F5F-8DA9-802FE9D1D907}"/>
-    <hyperlink ref="K27" r:id="rId88" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{39762A2F-7C7F-49D3-BCF5-1F0CAAD4F20A}"/>
-    <hyperlink ref="K33" r:id="rId89" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{EF104C8A-9374-4F8D-8B4C-82126CE449A6}"/>
-    <hyperlink ref="K18" r:id="rId90" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{B9CFE2A7-8BB9-4381-9CBC-C3936682898F}"/>
-    <hyperlink ref="K28" r:id="rId91" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{DCEA36DA-D36D-44E3-B2A9-2969AA6C1B3E}"/>
-    <hyperlink ref="K16" r:id="rId92" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{C56F2C1C-28CD-45FF-9EE5-6882A3E12681}"/>
+    <hyperlink ref="K29" r:id="rId88" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{39762A2F-7C7F-49D3-BCF5-1F0CAAD4F20A}"/>
+    <hyperlink ref="K31" r:id="rId89" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{EF104C8A-9374-4F8D-8B4C-82126CE449A6}"/>
+    <hyperlink ref="K20" r:id="rId90" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{B9CFE2A7-8BB9-4381-9CBC-C3936682898F}"/>
+    <hyperlink ref="K26" r:id="rId91" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{DCEA36DA-D36D-44E3-B2A9-2969AA6C1B3E}"/>
+    <hyperlink ref="K15" r:id="rId92" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{C56F2C1C-28CD-45FF-9EE5-6882A3E12681}"/>
     <hyperlink ref="K8" r:id="rId93" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{9B094A58-3C29-4D19-BFD6-07A435F16A94}"/>
-    <hyperlink ref="K32" r:id="rId94" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{32699BC3-ADFB-43A7-825F-717023499B91}"/>
+    <hyperlink ref="K30" r:id="rId94" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{32699BC3-ADFB-43A7-825F-717023499B91}"/>
     <hyperlink ref="K9" r:id="rId95" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{3F514E18-E7DF-4CFF-ABD7-E71F565FCDEA}"/>
     <hyperlink ref="K2" r:id="rId96" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{B9FA43B0-0B7F-43FD-BF39-C184F35F0099}"/>
   </hyperlinks>

--- a/dados/DadosCopaDoMundoQatar2022.xlsx
+++ b/dados/DadosCopaDoMundoQatar2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Outros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98097DBF-5690-4693-AA1A-36114F4FD61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69EA406-B26C-4F43-935C-7CD10E6CA644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selecoes" sheetId="3" r:id="rId1"/>
@@ -987,8 +987,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1000,6 +998,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1220,1375 +1224,1375 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="25.85546875" style="11" customWidth="1"/>
-    <col min="14" max="18" width="8.7109375" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="14.42578125" style="11"/>
+    <col min="1" max="1" width="20.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="25.85546875" style="15" customWidth="1"/>
+    <col min="14" max="18" width="8.7109375" style="15" customWidth="1"/>
+    <col min="19" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="15">
         <v>48</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="15">
         <v>18.329999999999998</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="15">
         <v>1442</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="15">
         <v>0</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <v>44</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="15">
         <v>125.8</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="15">
         <v>1464</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="15">
         <v>0</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="15">
         <v>18</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="15">
         <v>286.5</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="15">
         <v>1585</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="15">
         <v>0</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="15">
         <v>8</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="15">
         <v>455.75</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="15">
         <v>1679</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="15">
         <v>0</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="15">
         <v>5</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="15">
         <v>1360</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="15">
         <v>1737</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="15">
         <v>1</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <v>22</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="15">
         <v>68.58</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="15">
         <v>1559</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="15">
         <v>0</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="15">
         <v>14</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="15">
         <v>204.4</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="15">
         <v>1635</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="15">
         <v>0</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="15">
         <v>19</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="15">
         <v>130.85</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="15">
         <v>1582</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="15">
         <v>0</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="15">
         <v>3</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="15">
         <v>608</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="15">
         <v>1771</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="15">
         <v>2</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="15">
         <v>53</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="15">
         <v>23.1</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="15">
         <v>1436</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="15">
         <v>0</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="15">
         <v>12</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="15">
         <v>201.3</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="15">
         <v>1650</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="15">
         <v>0</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="15">
         <v>26</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="15">
         <v>257.7</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="15">
         <v>1546</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="15">
         <v>0</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="15">
         <v>10</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="15">
         <v>339.3</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="15">
         <v>1665</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="15">
         <v>0</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="15">
         <v>30</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="15">
         <v>65.849999999999994</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="15">
         <v>1508</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="15">
         <v>0</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="15">
         <v>4</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="15">
         <v>886</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="15">
         <v>1765</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="15">
         <v>2</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="15">
         <v>39</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="15">
         <v>40.33</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="15">
         <v>1484</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="15">
         <v>0</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="15">
         <v>11</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="15">
         <v>746.5</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="15">
         <v>1659</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="15">
         <v>4</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="15">
         <v>24</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="15">
         <v>131.69999999999999</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="15">
         <v>1555</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="15">
         <v>0</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="15">
         <v>6</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="15">
         <v>805</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="15">
         <v>1717</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="15">
         <v>1</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="15">
         <v>34</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="15">
         <v>11.95</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="15">
         <v>1500</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="15">
         <v>0</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="15">
         <v>23</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="15">
         <v>231.9</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="15">
         <v>1558</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="15">
         <v>0</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="15">
         <v>15</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="15">
         <v>369.4</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="15">
         <v>1632</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="15">
         <v>0</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="15">
         <v>2</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="15">
         <v>559</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="15">
         <v>1822</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="15">
         <v>0</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="15">
         <v>43</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="15">
         <v>172.13</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="15">
         <v>1474</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="15">
         <v>0</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="15">
         <v>16</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="15">
         <v>192.2</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="15">
         <v>1621</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="15">
         <v>0</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="15">
         <v>38</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="15">
         <v>114.75</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="15">
         <v>1485</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="15">
         <v>0</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="15">
         <v>1</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="15">
         <v>1090</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="15">
         <v>1838</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="15">
         <v>5</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="15">
         <v>25</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="15">
         <v>328</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="15">
         <v>1550</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="15">
         <v>0</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="15">
         <v>13</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="15">
         <v>395.4</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="15">
         <v>1641</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="15">
         <v>2</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="15">
         <v>28</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="15">
         <v>159.55000000000001</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="15">
         <v>1526</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="15">
         <v>0</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="15">
         <v>9</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="15">
         <v>882</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="15">
         <v>1679</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="15">
         <v>0</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="15" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="15">
         <v>60</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="15">
         <v>206.4</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="15">
         <v>1393</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="15">
         <v>0</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="15" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2709,7 +2713,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2722,7 +2726,7 @@
     <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
@@ -2742,7 +2746,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44885</v>
       </c>
@@ -2762,7 +2766,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44886</v>
       </c>
@@ -2782,7 +2786,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44886</v>
       </c>
@@ -2798,11 +2802,11 @@
       <c r="E4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44886</v>
       </c>
@@ -2818,11 +2822,11 @@
       <c r="E5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44887</v>
       </c>
@@ -2842,7 +2846,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44887</v>
       </c>
@@ -2858,11 +2862,11 @@
       <c r="E7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44887</v>
       </c>
@@ -2878,11 +2882,11 @@
       <c r="E8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44887</v>
       </c>
@@ -2898,11 +2902,11 @@
       <c r="E9" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44888</v>
       </c>
@@ -2918,11 +2922,11 @@
       <c r="E10" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44888</v>
       </c>
@@ -2942,7 +2946,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44888</v>
       </c>
@@ -2962,7 +2966,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44888</v>
       </c>
@@ -2978,11 +2982,11 @@
       <c r="E13" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44889</v>
       </c>
@@ -2998,11 +3002,11 @@
       <c r="E14" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44889</v>
       </c>
@@ -3022,7 +3026,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44889</v>
       </c>
@@ -3038,11 +3042,11 @@
       <c r="E16" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44889</v>
       </c>
@@ -3058,11 +3062,11 @@
       <c r="E17" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44890</v>
       </c>
@@ -3082,7 +3086,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44890</v>
       </c>
@@ -3098,11 +3102,11 @@
       <c r="E19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44890</v>
       </c>
@@ -3113,16 +3117,16 @@
         <v>64</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44890</v>
       </c>
@@ -3142,7 +3146,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44891</v>
       </c>
@@ -3153,16 +3157,16 @@
         <v>85</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44891</v>
       </c>
@@ -3182,7 +3186,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44891</v>
       </c>
@@ -3198,11 +3202,11 @@
       <c r="E24" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44891</v>
       </c>
@@ -3213,16 +3217,16 @@
         <v>106</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44892</v>
       </c>
@@ -3238,11 +3242,11 @@
       <c r="E26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44892</v>
       </c>
@@ -3262,7 +3266,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44892</v>
       </c>
@@ -3273,16 +3277,16 @@
         <v>147</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44892</v>
       </c>
@@ -3298,11 +3302,11 @@
       <c r="E29" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44893</v>
       </c>
@@ -3318,11 +3322,11 @@
       <c r="E30" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44893</v>
       </c>
@@ -3333,16 +3337,16 @@
         <v>168</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44893</v>
       </c>
@@ -3358,11 +3362,11 @@
       <c r="E32" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44893</v>
       </c>
@@ -3373,16 +3377,16 @@
         <v>188</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>44894</v>
       </c>
@@ -3402,7 +3406,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44894</v>
       </c>
@@ -3418,11 +3422,11 @@
       <c r="E35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44894</v>
       </c>
@@ -3438,11 +3442,11 @@
       <c r="E36" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44894</v>
       </c>
@@ -3462,7 +3466,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44895</v>
       </c>
@@ -3478,11 +3482,11 @@
       <c r="E38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44895</v>
       </c>
@@ -3502,7 +3506,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44895</v>
       </c>
@@ -3518,11 +3522,11 @@
       <c r="E40" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>44895</v>
       </c>
@@ -3538,11 +3542,11 @@
       <c r="E41" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>44896</v>
       </c>
@@ -3558,11 +3562,11 @@
       <c r="E42" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>44896</v>
       </c>
@@ -3582,7 +3586,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>44896</v>
       </c>
@@ -3598,11 +3602,11 @@
       <c r="E44" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44896</v>
       </c>
@@ -3622,7 +3626,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44897</v>
       </c>
@@ -3642,7 +3646,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>44897</v>
       </c>
@@ -3658,11 +3662,11 @@
       <c r="E47" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>44897</v>
       </c>
@@ -3678,11 +3682,11 @@
       <c r="E48" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>44897</v>
       </c>
@@ -3698,7 +3702,7 @@
       <c r="E49" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="10" t="s">
         <v>265</v>
       </c>
     </row>
@@ -11322,7 +11326,7 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11331,10 +11335,10 @@
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="14.42578125" style="14"/>
+    <col min="7" max="14" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
@@ -11353,32 +11357,32 @@
       <c r="F1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="13" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44885</v>
       </c>
@@ -11397,38 +11401,38 @@
       <c r="F2" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="12">
         <v>0</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="12">
         <v>2</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="12">
         <f>G2-H2</f>
         <v>-2</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="12">
         <f>I2*(-1)</f>
         <v>2</v>
       </c>
-      <c r="K2" s="14">
-        <f t="shared" ref="K2:K33" si="0">IF(G2&gt;H2, 3, IF(G2&lt;H2, 0, 1))</f>
+      <c r="K2" s="12">
+        <f t="shared" ref="K2:K35" si="0">IF(G2&gt;H2, 3, IF(G2&lt;H2, 0, 1))</f>
         <v>0</v>
       </c>
-      <c r="L2" s="14">
-        <f t="shared" ref="L2:L33" si="1">IF(G2&lt;H2,3,IF(G2&gt;H2,0,1))</f>
+      <c r="L2" s="12">
+        <f t="shared" ref="L2:L35" si="1">IF(G2&lt;H2,3,IF(G2&gt;H2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="M2" s="14" t="str">
+      <c r="M2" s="12" t="str">
         <f>IF(G2&gt;H2,"'V'",IF(G2&lt;H2, "'D'", "'E'"))</f>
         <v>'D'</v>
       </c>
-      <c r="N2" s="14" t="str">
+      <c r="N2" s="12" t="str">
         <f>"'"&amp;G2&amp;"x"&amp;H2&amp;"'"</f>
         <v>'0x2'</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44886</v>
       </c>
@@ -11447,38 +11451,38 @@
       <c r="F3" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <v>0</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>2</v>
       </c>
-      <c r="I3" s="14">
-        <f t="shared" ref="I3:I33" si="2">G3-H3</f>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I35" si="2">G3-H3</f>
         <v>-2</v>
       </c>
-      <c r="J3" s="14">
-        <f t="shared" ref="J3:J33" si="3">I3*(-1)</f>
+      <c r="J3" s="12">
+        <f t="shared" ref="J3:J35" si="3">I3*(-1)</f>
         <v>2</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M3" s="14" t="str">
-        <f t="shared" ref="M3:M33" si="4">IF(G3&gt;H3,"'V'",IF(G3&lt;H3, "'D'", "'E'"))</f>
+      <c r="M3" s="12" t="str">
+        <f t="shared" ref="M3:M35" si="4">IF(G3&gt;H3,"'V'",IF(G3&lt;H3, "'D'", "'E'"))</f>
         <v>'D'</v>
       </c>
-      <c r="N3" s="14" t="str">
-        <f t="shared" ref="N3:N33" si="5">"'"&amp;G3&amp;"x"&amp;H3&amp;"'"</f>
+      <c r="N3" s="12" t="str">
+        <f t="shared" ref="N3:N35" si="5">"'"&amp;G3&amp;"x"&amp;H3&amp;"'"</f>
         <v>'0x2'</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44886</v>
       </c>
@@ -11494,41 +11498,41 @@
       <c r="E4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <v>6</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <v>2</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="12">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="12">
         <f t="shared" si="3"/>
         <v>-4</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M4" s="14" t="str">
+      <c r="M4" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'V'</v>
       </c>
-      <c r="N4" s="14" t="str">
+      <c r="N4" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'6x2'</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44886</v>
       </c>
@@ -11544,41 +11548,41 @@
       <c r="E5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>1</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <v>1</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M5" s="14" t="str">
+      <c r="M5" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'E'</v>
       </c>
-      <c r="N5" s="14" t="str">
+      <c r="N5" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'1x1'</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44887</v>
       </c>
@@ -11597,38 +11601,38 @@
       <c r="F6" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>1</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="12">
         <v>2</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="12">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M6" s="14" t="str">
+      <c r="M6" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'D'</v>
       </c>
-      <c r="N6" s="14" t="str">
+      <c r="N6" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'1x2'</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44887</v>
       </c>
@@ -11644,41 +11648,41 @@
       <c r="E7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>0</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <v>0</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M7" s="14" t="str">
+      <c r="M7" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'E'</v>
       </c>
-      <c r="N7" s="14" t="str">
+      <c r="N7" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'0x0'</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44887</v>
       </c>
@@ -11694,41 +11698,41 @@
       <c r="E8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <v>0</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="12">
         <v>0</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M8" s="14" t="str">
+      <c r="M8" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'E'</v>
       </c>
-      <c r="N8" s="14" t="str">
+      <c r="N8" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'0x0'</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44887</v>
       </c>
@@ -11744,41 +11748,41 @@
       <c r="E9" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>4</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <v>1</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="12">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="12">
         <f t="shared" si="3"/>
         <v>-3</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="14" t="str">
+      <c r="M9" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'V'</v>
       </c>
-      <c r="N9" s="14" t="str">
+      <c r="N9" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'4x1'</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44888</v>
       </c>
@@ -11794,41 +11798,41 @@
       <c r="E10" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <v>1</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <v>2</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="12">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M10" s="14" t="str">
+      <c r="M10" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'D'</v>
       </c>
-      <c r="N10" s="14" t="str">
+      <c r="N10" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'1x2'</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44888</v>
       </c>
@@ -11847,38 +11851,38 @@
       <c r="F11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <v>7</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <v>0</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="12">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <f t="shared" si="3"/>
         <v>-7</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="14" t="str">
+      <c r="M11" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'V'</v>
       </c>
-      <c r="N11" s="14" t="str">
+      <c r="N11" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'7x0'</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44888</v>
       </c>
@@ -11897,38 +11901,38 @@
       <c r="F12" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="12">
         <v>0</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="12">
         <v>0</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M12" s="14" t="str">
+      <c r="M12" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'E'</v>
       </c>
-      <c r="N12" s="14" t="str">
+      <c r="N12" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'0x0'</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44888</v>
       </c>
@@ -11944,41 +11948,41 @@
       <c r="E13" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <v>1</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <v>0</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="14" t="str">
+      <c r="M13" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'V'</v>
       </c>
-      <c r="N13" s="14" t="str">
+      <c r="N13" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'1x0'</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44889</v>
       </c>
@@ -11994,41 +11998,41 @@
       <c r="E14" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="12">
         <v>1</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="12">
         <v>0</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="14" t="str">
+      <c r="M14" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'V'</v>
       </c>
-      <c r="N14" s="14" t="str">
+      <c r="N14" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'1x0'</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44889</v>
       </c>
@@ -12047,38 +12051,38 @@
       <c r="F15" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <v>2</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="12">
         <v>0</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="12">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="14" t="str">
+      <c r="M15" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'V'</v>
       </c>
-      <c r="N15" s="14" t="str">
+      <c r="N15" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'2x0'</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44889</v>
       </c>
@@ -12094,41 +12098,41 @@
       <c r="E16" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="12">
         <v>0</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="12">
         <v>0</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M16" s="14" t="str">
+      <c r="M16" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'E'</v>
       </c>
-      <c r="N16" s="14" t="str">
+      <c r="N16" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'0x0'</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44889</v>
       </c>
@@ -12144,41 +12148,41 @@
       <c r="E17" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>3</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <v>2</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="12">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="14" t="str">
+      <c r="M17" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'V'</v>
       </c>
-      <c r="N17" s="14" t="str">
+      <c r="N17" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'3x2'</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44890</v>
       </c>
@@ -12197,38 +12201,38 @@
       <c r="F18" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="12">
         <v>3</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="12">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M18" s="14" t="str">
+      <c r="M18" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'D'</v>
       </c>
-      <c r="N18" s="14" t="str">
+      <c r="N18" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'1x3'</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44890</v>
       </c>
@@ -12244,41 +12248,41 @@
       <c r="E19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <v>1</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="12">
         <v>1</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M19" s="14" t="str">
+      <c r="M19" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'E'</v>
       </c>
-      <c r="N19" s="14" t="str">
+      <c r="N19" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'1x1'</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44890</v>
       </c>
@@ -12289,736 +12293,796 @@
         <v>64</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
+        <v>2</v>
+      </c>
+      <c r="H20" s="12">
         <v>0</v>
       </c>
-      <c r="H20" s="14">
+      <c r="I20" s="12">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I20" s="14">
+      <c r="J20" s="12">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>'V'</v>
+      </c>
+      <c r="N20" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>'2x0'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44890</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>'E'</v>
+      </c>
+      <c r="N21" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>'0x0'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44891</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>2</v>
+      </c>
+      <c r="I22" s="12">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J22" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K22" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L22" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M20" s="14" t="str">
+      <c r="M22" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'D'</v>
       </c>
-      <c r="N20" s="14" t="str">
+      <c r="N22" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'0x2'</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>44890</v>
-      </c>
-      <c r="B21" s="4">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44891</v>
+      </c>
+      <c r="B23" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="C23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" s="12">
+        <v>2</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>'V'</v>
+      </c>
+      <c r="N23" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>'2x0'</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44891</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M24" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>'D'</v>
+      </c>
+      <c r="N24" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>'0x1'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44891</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1</v>
+      </c>
+      <c r="H25" s="12">
+        <v>2</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M25" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>'D'</v>
+      </c>
+      <c r="N25" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>'1x2'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44892</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
+      <c r="I26" s="12">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J26" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M26" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>'D'</v>
+      </c>
+      <c r="N26" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>'0x1'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44892</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G21" s="14">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14">
+      <c r="G27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12">
+        <v>1</v>
+      </c>
+      <c r="I27" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J27" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L27" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M21" s="14" t="str">
+      <c r="M27" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'E'</v>
       </c>
-      <c r="N21" s="14" t="str">
+      <c r="N27" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>'0x0'</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>44891</v>
-      </c>
-      <c r="B22" s="4">
+        <v>'1x1'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44892</v>
+      </c>
+      <c r="B28" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="G22" s="14">
+      <c r="C28" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="12">
         <v>2</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H28" s="12">
         <v>0</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I28" s="12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J28" s="12">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K28" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L28" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="14" t="str">
+      <c r="M28" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'V'</v>
       </c>
-      <c r="N22" s="14" t="str">
+      <c r="N28" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'2x0'</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>44891</v>
-      </c>
-      <c r="B23" s="4">
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44892</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" s="12">
+        <v>4</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1</v>
+      </c>
+      <c r="I29" s="12">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J29" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="K29" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L29" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>'V'</v>
+      </c>
+      <c r="N29" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>'4x1'</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44893</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" s="12">
+        <v>3</v>
+      </c>
+      <c r="H30" s="12">
+        <v>3</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>'E'</v>
+      </c>
+      <c r="N30" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>'3x3'</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44893</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J31" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M31" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>'D'</v>
+      </c>
+      <c r="N31" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>'0x1'</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44893</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" s="12">
+        <v>2</v>
+      </c>
+      <c r="H32" s="12">
+        <v>3</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J32" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M32" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>'D'</v>
+      </c>
+      <c r="N32" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>'2x3'</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44893</v>
+      </c>
+      <c r="B33" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="C33" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12">
         <v>2</v>
       </c>
-      <c r="H23" s="14">
+      <c r="I33" s="12">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="J33" s="12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K33" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="14">
+      <c r="L33" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M33" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>'D'</v>
+      </c>
+      <c r="N33" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>'0x2'</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>44894</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" s="12">
+        <v>2</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J34" s="12">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K34" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L34" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="14" t="str">
+      <c r="M34" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'V'</v>
       </c>
-      <c r="N23" s="14" t="str">
+      <c r="N34" s="12" t="str">
         <f t="shared" si="5"/>
         <v>'2x0'</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>44891</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="G24" s="14">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>44894</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" s="12">
         <v>1</v>
       </c>
-      <c r="I24" s="14">
+      <c r="H35" s="12">
+        <v>2</v>
+      </c>
+      <c r="I35" s="12">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J35" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K35" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L35" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M24" s="14" t="str">
+      <c r="M35" s="12" t="str">
         <f t="shared" si="4"/>
         <v>'D'</v>
       </c>
-      <c r="N24" s="14" t="str">
+      <c r="N35" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>'0x1'</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>44891</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="G25" s="14">
-        <v>2</v>
-      </c>
-      <c r="H25" s="14">
-        <v>1</v>
-      </c>
-      <c r="I25" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J25" s="14">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="K25" s="14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L25" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>'V'</v>
-      </c>
-      <c r="N25" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>'2x1'</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>44892</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G26" s="14">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14">
-        <v>1</v>
-      </c>
-      <c r="I26" s="14">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="J26" s="14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="14">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M26" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>'D'</v>
-      </c>
-      <c r="N26" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>'0x1'</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>44892</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G27" s="14">
-        <v>1</v>
-      </c>
-      <c r="H27" s="14">
-        <v>1</v>
-      </c>
-      <c r="I27" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M27" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>'E'</v>
-      </c>
-      <c r="N27" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>'1x1'</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>44892</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G28" s="14">
-        <v>0</v>
-      </c>
-      <c r="H28" s="14">
-        <v>2</v>
-      </c>
-      <c r="I28" s="14">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="J28" s="14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K28" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="14">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M28" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>'D'</v>
-      </c>
-      <c r="N28" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>'0x2'</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>44892</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="G29" s="14">
-        <v>4</v>
-      </c>
-      <c r="H29" s="14">
-        <v>1</v>
-      </c>
-      <c r="I29" s="14">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J29" s="14">
-        <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-      <c r="K29" s="14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L29" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>'V'</v>
-      </c>
-      <c r="N29" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>'4x1'</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>44893</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="G30" s="14">
-        <v>3</v>
-      </c>
-      <c r="H30" s="14">
-        <v>3</v>
-      </c>
-      <c r="I30" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L30" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M30" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>'E'</v>
-      </c>
-      <c r="N30" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>'3x3'</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>44893</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="G31" s="14">
-        <v>1</v>
-      </c>
-      <c r="H31" s="14">
-        <v>0</v>
-      </c>
-      <c r="I31" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J31" s="14">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="K31" s="14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L31" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>'V'</v>
-      </c>
-      <c r="N31" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>'1x0'</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>44893</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="G32" s="14">
-        <v>2</v>
-      </c>
-      <c r="H32" s="14">
-        <v>3</v>
-      </c>
-      <c r="I32" s="14">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="J32" s="14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K32" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="14">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M32" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>'D'</v>
-      </c>
-      <c r="N32" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>'2x3'</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>44893</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G33" s="14">
-        <v>2</v>
-      </c>
-      <c r="H33" s="14">
-        <v>0</v>
-      </c>
-      <c r="I33" s="14">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J33" s="14">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="K33" s="14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L33" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>'V'</v>
-      </c>
-      <c r="N33" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>'2x0'</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>44894</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>44894</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>'1x2'</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44894</v>
       </c>
@@ -13034,11 +13098,11 @@
       <c r="E36" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44894</v>
       </c>
@@ -13058,7 +13122,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44895</v>
       </c>
@@ -13074,11 +13138,11 @@
       <c r="E38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44895</v>
       </c>
@@ -13098,7 +13162,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44895</v>
       </c>
@@ -13114,11 +13178,11 @@
       <c r="E40" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>44895</v>
       </c>
@@ -13134,11 +13198,11 @@
       <c r="E41" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>44896</v>
       </c>
@@ -13154,11 +13218,11 @@
       <c r="E42" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>44896</v>
       </c>
@@ -13178,7 +13242,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>44896</v>
       </c>
@@ -13194,11 +13258,11 @@
       <c r="E44" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44896</v>
       </c>
@@ -13218,7 +13282,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44897</v>
       </c>
@@ -13238,7 +13302,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>44897</v>
       </c>
@@ -13254,11 +13318,11 @@
       <c r="E47" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>44897</v>
       </c>
@@ -13274,11 +13338,11 @@
       <c r="E48" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>44897</v>
       </c>
@@ -13294,7 +13358,7 @@
       <c r="E49" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="10" t="s">
         <v>265</v>
       </c>
     </row>
